--- a/Formations UiPath/RPA Developer Advanced/Generate_Yearly_Report_Performer/Data/Config.xlsx
+++ b/Formations UiPath/RPA Developer Advanced/Generate_Yearly_Report_Performer/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>ACME_Download_URL</t>
+  </si>
+  <si>
+    <t>Path_To_Download_Folder</t>
+  </si>
+  <si>
+    <t>C:\Users\julien.lay\Downloads\</t>
+  </si>
+  <si>
+    <t>ACME_Upload_URL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/upload</t>
+  </si>
+  <si>
+    <t>Path_To_Yearly_Report_File</t>
+  </si>
+  <si>
+    <t>C:\Users\julien.lay\Desktop\Formation UiPath\RPA Developer Advanced\Generate_Yearly_Report_Performer\Data\Yearly Report CSV Files\</t>
   </si>
 </sst>
 </file>
@@ -671,7 +689,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>47</v>
@@ -1684,13 +1709,13 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="128" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -1866,8 +1891,22 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
